--- a/結合試験手順書.xlsx
+++ b/結合試験手順書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A61B2B-99FE-4C55-B11A-D6D28A90AD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095CA6C-3A2F-41C9-B1FF-F26BFCEE41DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="9" xr2:uid="{4FB6EA66-C2F1-41B9-8488-DABD53C67F5A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4FB6EA66-C2F1-41B9-8488-DABD53C67F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="結合試験手順書" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -266,20 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">WordPressログイン画面でユーザー名、パスワードを入力する。
-</t>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">WordPress管理画面の左上のブログタイトル（Gw_Hm blog）を押下する。
 </t>
     <rPh sb="9" eb="11">
@@ -373,29 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>phpMyAdminメイン画面の「SQL」タブを押下し、以下を入力して「実行」を押下する。
-SELECT * FROM `wp_options` WHERE `option_name` = 'blogname';</t>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>option_valueが「Gw_Hm blog」のレコードが表示されること。</t>
   </si>
   <si>
@@ -486,6 +449,55 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WordPress管理画面が表示されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WordPress管理画面の左上のブログタイトル（Gw_Hm blog）を押下する。</t>
+  </si>
+  <si>
+    <t>ブログサイトに遷移すること。</t>
+  </si>
+  <si>
+    <t>WordPressログイン画面でユーザー名・パスワードを入力して「ログイン」を押下する。</t>
+    <rPh sb="39" eb="41">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WordPressログイン画面でユーザー名・パスワードを入力して「ログイン」を押下する。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phpMyAdminメイン画面の「SQL」タブを押下し、以下を入力して「実行」を押下する。
+SELECT * FROM `wp_options` WHERE `option_name` = 'blogname';
+</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -494,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +551,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -578,12 +599,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,8 +647,18 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,6 +821,72 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>317501</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92207C07-954B-4D15-8A8D-D561003FF912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317501" y="1297213"/>
+          <a:ext cx="1034142" cy="244929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1147,6 +1247,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>344714</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C6BF70-2834-DA87-350A-F385C5244104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="344714" y="3020786"/>
+          <a:ext cx="943428" cy="199571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1248,6 +1414,72 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3A33E0-00AC-42B7-81CC-674069D118A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4009571" y="11339285"/>
+          <a:ext cx="3283857" cy="235858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1709,8 +1941,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18972D40-B0C9-4BA2-ACB4-8B694E24C3EB}">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1719,18 +1954,18 @@
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.4140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.58203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="34" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1738,7 +1973,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -1763,7 +1998,7 @@
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1784,11 +2019,17 @@
         <v>31</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="G4" s="13">
+        <v>45544</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:10" ht="37.5" x14ac:dyDescent="0.55000000000000004">
@@ -1806,11 +2047,17 @@
         <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="G5" s="13">
+        <v>45544</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:10" ht="37.5" x14ac:dyDescent="0.55000000000000004">
@@ -1828,14 +2075,20 @@
         <v>33</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="G6" s="13">
+        <v>45544</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="2:10" ht="37.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:10" ht="50" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1850,14 +2103,20 @@
         <v>34</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="G7" s="13">
+        <v>45544</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:10" ht="25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:10" ht="37.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1870,14 +2129,20 @@
         <v>PHP、MySQLとの連携確認</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="G8" s="13">
+        <v>45544</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10" ht="25" x14ac:dyDescent="0.55000000000000004">
@@ -1896,14 +2161,20 @@
         <v>35</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="G9" s="13">
+        <v>45544</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="2:10" ht="25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:10" ht="62.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -1916,17 +2187,23 @@
         <v>PHP、MySQLとの連携確認</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="13">
+        <v>45544</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="2:10" ht="37.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:10" ht="50" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
@@ -1940,11 +2217,17 @@
         <v>36</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="G11" s="13">
+        <v>45544</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10" ht="25" x14ac:dyDescent="0.55000000000000004">
@@ -1959,14 +2242,20 @@
         <v>24</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="G12" s="13">
+        <v>45544</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" ht="25" x14ac:dyDescent="0.55000000000000004">
@@ -1981,18 +2270,36 @@
         <v>26</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="G13" s="13">
+        <v>45544</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="J13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="I4" location="'001'!A1" display="001" xr:uid="{88630B2A-885B-45E0-8B34-FE56C1554F74}"/>
+    <hyperlink ref="I5" location="'002'!A1" display="002" xr:uid="{C4E75414-A4CD-4FE7-99F3-89A7061BE295}"/>
+    <hyperlink ref="I6" location="'003'!A1" display="003" xr:uid="{3FCD0522-FA6E-473F-87E4-FF76B7A7B502}"/>
+    <hyperlink ref="I7" location="'004'!A1" display="004" xr:uid="{B2679B34-DB5D-4FE9-AE10-869886551002}"/>
+    <hyperlink ref="I8" location="'005'!A1" display="005" xr:uid="{63D77A3B-1AD9-4C72-95E2-65502432EA8B}"/>
+    <hyperlink ref="I9" location="'006'!A1" display="006" xr:uid="{003C63B0-D065-4D3E-8482-C6E1C723718A}"/>
+    <hyperlink ref="I10" location="'007'!A1" display="007" xr:uid="{378BC4BA-A6D5-4C1E-84E8-525F7A797C70}"/>
+    <hyperlink ref="I11" location="'008'!A1" display="008" xr:uid="{58EE8CFF-A0EA-47E4-93B1-F2BEAF560647}"/>
+    <hyperlink ref="I12" location="'009'!A1" display="009" xr:uid="{4F84280B-0E75-4A1E-A2BF-3D45C74D68F5}"/>
+    <hyperlink ref="I13" location="'010'!A1" display="010" xr:uid="{DA583B17-6EB5-47CF-ABE9-3055C7B0F554}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2011,14 +2318,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F110FB-0237-46F5-8710-8E07B29BF0A8}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2027,14 +2345,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71A3049-0384-490B-B75D-105681C7AB07}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2051,17 +2380,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2074,9 +2403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA30B9F-D4CC-495E-B341-15CD37FE4BC1}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2090,12 +2417,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2122,12 +2449,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2154,12 +2481,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2186,12 +2513,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2213,12 +2540,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2232,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5E29E9-177E-4680-A794-2274351EDB33}">
   <dimension ref="A2:A32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2245,7 +2572,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2259,25 +2586,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCF7554-91D0-47F4-85D8-31BE00286D56}">
   <dimension ref="A2:A33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2304,12 +2631,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
